--- a/162.xlsx
+++ b/162.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\LSM\0 1 label.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squir\Desktop\数据\0 1 label 155-192\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637DE62D-B48C-4A6E-AD35-ED2F69CE5A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233F56AF-33C7-41BA-9E85-47A5C2674426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30510" yWindow="1065" windowWidth="12015" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7893,8 +7893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2485" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A2489" workbookViewId="0">
+      <selection activeCell="F2515" sqref="F2515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8484,7 +8484,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -9092,7 +9092,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -9132,7 +9132,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -9268,7 +9268,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -9276,7 +9276,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -10532,7 +10532,7 @@
         <v>329</v>
       </c>
       <c r="B329" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -10540,7 +10540,7 @@
         <v>330</v>
       </c>
       <c r="B330" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -10548,7 +10548,7 @@
         <v>331</v>
       </c>
       <c r="B331" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -10580,7 +10580,7 @@
         <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -10588,7 +10588,7 @@
         <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -10596,7 +10596,7 @@
         <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -11700,7 +11700,7 @@
         <v>475</v>
       </c>
       <c r="B475" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -12452,7 +12452,7 @@
         <v>569</v>
       </c>
       <c r="B569" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -12500,7 +12500,7 @@
         <v>575</v>
       </c>
       <c r="B575" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -12836,7 +12836,7 @@
         <v>617</v>
       </c>
       <c r="B617" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -13068,7 +13068,7 @@
         <v>646</v>
       </c>
       <c r="B646" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -13348,7 +13348,7 @@
         <v>681</v>
       </c>
       <c r="B681" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -13964,7 +13964,7 @@
         <v>758</v>
       </c>
       <c r="B758" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
@@ -14468,7 +14468,7 @@
         <v>821</v>
       </c>
       <c r="B821" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
@@ -14484,7 +14484,7 @@
         <v>823</v>
       </c>
       <c r="B823" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -15988,7 +15988,7 @@
         <v>1011</v>
       </c>
       <c r="B1011" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
@@ -16364,7 +16364,7 @@
         <v>1058</v>
       </c>
       <c r="B1058" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
@@ -16620,7 +16620,7 @@
         <v>1090</v>
       </c>
       <c r="B1090" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
@@ -16916,7 +16916,7 @@
         <v>1127</v>
       </c>
       <c r="B1127" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
@@ -17556,7 +17556,7 @@
         <v>1207</v>
       </c>
       <c r="B1207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
@@ -18284,7 +18284,7 @@
         <v>1298</v>
       </c>
       <c r="B1298" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:2" x14ac:dyDescent="0.25">
@@ -19100,7 +19100,7 @@
         <v>1400</v>
       </c>
       <c r="B1400" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
@@ -19268,7 +19268,7 @@
         <v>1421</v>
       </c>
       <c r="B1421" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
@@ -19452,7 +19452,7 @@
         <v>1444</v>
       </c>
       <c r="B1444" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
@@ -19604,7 +19604,7 @@
         <v>1463</v>
       </c>
       <c r="B1463" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
@@ -20044,7 +20044,7 @@
         <v>1518</v>
       </c>
       <c r="B1518" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1519" spans="1:2" x14ac:dyDescent="0.25">
@@ -20052,7 +20052,7 @@
         <v>1519</v>
       </c>
       <c r="B1519" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
@@ -20060,7 +20060,7 @@
         <v>1520</v>
       </c>
       <c r="B1520" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1521" spans="1:2" x14ac:dyDescent="0.25">
@@ -20180,7 +20180,7 @@
         <v>1535</v>
       </c>
       <c r="B1535" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1536" spans="1:2" x14ac:dyDescent="0.25">
@@ -20276,7 +20276,7 @@
         <v>1547</v>
       </c>
       <c r="B1547" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1548" spans="1:2" x14ac:dyDescent="0.25">
@@ -21580,7 +21580,7 @@
         <v>1710</v>
       </c>
       <c r="B1710" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.25">
@@ -21620,7 +21620,7 @@
         <v>1715</v>
       </c>
       <c r="B1715" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
@@ -21788,7 +21788,7 @@
         <v>1736</v>
       </c>
       <c r="B1736" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
@@ -23036,7 +23036,7 @@
         <v>1892</v>
       </c>
       <c r="B1892" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1893" spans="1:2" x14ac:dyDescent="0.25">
@@ -23044,7 +23044,7 @@
         <v>1893</v>
       </c>
       <c r="B1893" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1894" spans="1:2" x14ac:dyDescent="0.25">
@@ -23252,7 +23252,7 @@
         <v>1919</v>
       </c>
       <c r="B1919" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1920" spans="1:2" x14ac:dyDescent="0.25">
@@ -23452,7 +23452,7 @@
         <v>1944</v>
       </c>
       <c r="B1944" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1945" spans="1:2" x14ac:dyDescent="0.25">
@@ -23540,7 +23540,7 @@
         <v>1955</v>
       </c>
       <c r="B1955" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1956" spans="1:2" x14ac:dyDescent="0.25">
@@ -23620,7 +23620,7 @@
         <v>1965</v>
       </c>
       <c r="B1965" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1966" spans="1:2" x14ac:dyDescent="0.25">
@@ -23668,7 +23668,7 @@
         <v>1971</v>
       </c>
       <c r="B1971" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1972" spans="1:2" x14ac:dyDescent="0.25">
@@ -24116,7 +24116,7 @@
         <v>2027</v>
       </c>
       <c r="B2027" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
@@ -24188,7 +24188,7 @@
         <v>2036</v>
       </c>
       <c r="B2036" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2037" spans="1:2" x14ac:dyDescent="0.25">
@@ -24212,7 +24212,7 @@
         <v>2039</v>
       </c>
       <c r="B2039" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2040" spans="1:2" x14ac:dyDescent="0.25">
@@ -24596,7 +24596,7 @@
         <v>2087</v>
       </c>
       <c r="B2087" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2088" spans="1:2" x14ac:dyDescent="0.25">
@@ -24604,7 +24604,7 @@
         <v>2088</v>
       </c>
       <c r="B2088" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2089" spans="1:2" x14ac:dyDescent="0.25">
@@ -24612,7 +24612,7 @@
         <v>2089</v>
       </c>
       <c r="B2089" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2090" spans="1:2" x14ac:dyDescent="0.25">
@@ -24932,7 +24932,7 @@
         <v>2129</v>
       </c>
       <c r="B2129" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2130" spans="1:2" x14ac:dyDescent="0.25">
@@ -25212,7 +25212,7 @@
         <v>2164</v>
       </c>
       <c r="B2164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2165" spans="1:2" x14ac:dyDescent="0.25">
@@ -25332,7 +25332,7 @@
         <v>2179</v>
       </c>
       <c r="B2179" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2180" spans="1:2" x14ac:dyDescent="0.25">
@@ -25532,7 +25532,7 @@
         <v>2204</v>
       </c>
       <c r="B2204" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.25">
@@ -26300,7 +26300,7 @@
         <v>2300</v>
       </c>
       <c r="B2300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2301" spans="1:2" x14ac:dyDescent="0.25">
@@ -26828,7 +26828,7 @@
         <v>2366</v>
       </c>
       <c r="B2366" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2367" spans="1:2" x14ac:dyDescent="0.25">
@@ -27004,7 +27004,7 @@
         <v>2388</v>
       </c>
       <c r="B2388" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2389" spans="1:2" x14ac:dyDescent="0.25">
@@ -27012,7 +27012,7 @@
         <v>2389</v>
       </c>
       <c r="B2389" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2390" spans="1:2" x14ac:dyDescent="0.25">
@@ -27092,7 +27092,7 @@
         <v>2399</v>
       </c>
       <c r="B2399" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2400" spans="1:2" x14ac:dyDescent="0.25">
@@ -27100,7 +27100,7 @@
         <v>2400</v>
       </c>
       <c r="B2400" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2401" spans="1:2" x14ac:dyDescent="0.25">
@@ -27108,7 +27108,7 @@
         <v>2401</v>
       </c>
       <c r="B2401" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2402" spans="1:2" x14ac:dyDescent="0.25">
@@ -27444,7 +27444,7 @@
         <v>2443</v>
       </c>
       <c r="B2443" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2444" spans="1:2" x14ac:dyDescent="0.25">
@@ -27628,7 +27628,7 @@
         <v>2466</v>
       </c>
       <c r="B2466" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2467" spans="1:2" x14ac:dyDescent="0.25">
@@ -27884,7 +27884,7 @@
         <v>2498</v>
       </c>
       <c r="B2498" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499" spans="1:2" x14ac:dyDescent="0.25">
@@ -27932,7 +27932,7 @@
         <v>2504</v>
       </c>
       <c r="B2504" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2505" spans="1:2" x14ac:dyDescent="0.25">
